--- a/数据整理/stocks/A股/深证主板/002153-石基信息.xlsx
+++ b/数据整理/stocks/A股/深证主板/002153-石基信息.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,25 +502,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>410007</t>
+          <t>110010</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华富价值增长混合</t>
+          <t>易方达价值成长混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>80.00</t>
+          <t>59.84</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5911</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
       </c>
     </row>
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>410003</t>
+          <t>009398</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华富成长趋势混合</t>
+          <t>华富成长企业精选股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>90.77</t>
+          <t>13.43</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8824</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>110010</t>
+          <t>410003</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>易方达价值成长混合</t>
+          <t>华富成长趋势混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.93</t>
+          <t>12.84</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4224</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -586,15 +626,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>94.49</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>9.52</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2390</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>5</v>
       </c>
     </row>
@@ -614,15 +664,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>94.49</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>9.52</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2390</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>5</v>
       </c>
     </row>
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009398</t>
+          <t>410007</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华富成长企业精选股票</t>
+          <t>华富价值增长混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>92.07</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>6.57</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>3</v>
+          <t>80.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0900</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -670,15 +740,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>89.95</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>3.74</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>9</v>
       </c>
     </row>
@@ -698,15 +778,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>89.95</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>3.74</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>9</v>
       </c>
     </row>
@@ -721,7 +811,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -742,15 +832,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -762,26 +862,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>410007</t>
+          <t>110010</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华富价值增长混合</t>
+          <t>易方达价值成长混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>76.99</t>
+          <t>49.88</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.01</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5838</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -790,26 +900,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>410003</t>
+          <t>110009</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华富成长趋势混合</t>
+          <t>易方达价值精选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>91.26</t>
+          <t>36.34</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.74</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4820</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -818,26 +938,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001437</t>
+          <t>410003</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>易方达瑞享灵活配置混合I</t>
+          <t>华富成长趋势混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.52</t>
+          <t>10.53</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>9.46</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4991</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -846,26 +976,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001438</t>
+          <t>009398</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>易方达瑞享灵活配置混合E</t>
+          <t>华富成长企业精选股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.52</t>
+          <t>4.74</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>9.46</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4427</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>110009</t>
+          <t>001437</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>易方达价值精选混合</t>
+          <t>易方达瑞享灵活配置混合I</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.46</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>6.83</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2128</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>110010</t>
+          <t>001438</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>易方达价值成长混合</t>
+          <t>易方达瑞享灵活配置混合E</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>89.94</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5.18</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>3</v>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2128</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>003152</t>
+          <t>410007</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华富天鑫灵活配置混合A</t>
+          <t>华富价值增长混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>93.31</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>8</v>
+          <t>76.99</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1147</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -958,25 +1128,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>003153</t>
+          <t>003152</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华富天鑫灵活配置混合C</t>
+          <t>华富天鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>93.31</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>4.05</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>8</v>
       </c>
     </row>
@@ -986,26 +1166,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>009398</t>
+          <t>003153</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华富成长企业精选股票</t>
+          <t>华富天鑫灵活配置混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>94.50</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>9.34</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>3</v>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002153-石基信息.xlsx
+++ b/数据整理/stocks/A股/深证主板/002153-石基信息.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1201,4 +1202,516 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010115</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>60.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>68.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.9851</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>110009</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达价值精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>37.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.9422</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009341</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达均衡成长股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>100.81</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.6815</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>110010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达价值成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>53.49</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4121</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>410003</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华富成长趋势混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.20</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5850</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009398</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华富成长企业精选股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3255</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011412</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>68.58</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2397</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001437</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2299</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001438</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2299</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>410007</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华富价值增长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>78.61</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2089</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003152</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华富天鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0633</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003153</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华富天鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002153-石基信息.xlsx
+++ b/数据整理/stocks/A股/深证主板/002153-石基信息.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1714,4 +1715,554 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010115</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>41.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.9632</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>110009</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达价值精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>38.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>69.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.3864</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000118</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发聚鑫债券A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>173.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>20.03</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8070</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>410003</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华富成长趋势混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7355</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>410007</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华富价值增长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.87</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3289</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009398</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华富成长企业精选股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.14</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3055</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001437</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2365</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001438</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2365</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011412</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2171</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000119</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发聚鑫债券C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>14.94</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>20.03</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1554</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001097</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极优选股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1299</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003152</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华富天鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0733</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003153</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华富天鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002153-石基信息.xlsx
+++ b/数据整理/stocks/A股/深证主板/002153-石基信息.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2265,4 +2266,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.58</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.91</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002153-石基信息.xlsx
+++ b/数据整理/stocks/A股/深证主板/002153-石基信息.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2274,7 +2275,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2285,17 +2286,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2305,14 +2326,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10.58</v>
+          <t>010115</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>75.59</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.4532</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -2321,14 +2364,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>13.91</v>
+          <t>550015</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信诚至远灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>56.79</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1126</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -2337,14 +2402,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.6</v>
+          <t>410003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华富成长趋势混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8295</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -2353,13 +2440,797 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>410007</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华富价值增长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.51</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>77.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5429</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012408</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发恒昌一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>48.55</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>21.91</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4612</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009913</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信保诚成长动力混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.05</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.95</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4044</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001309</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方红睿逸定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>52.68</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>20.73</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3740</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>550016</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>信诚至远灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.63</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3482</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009398</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华富成长企业精选股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3447</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001437</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2035</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001438</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2035</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011412</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.86</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1962</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003152</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华富天鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1949</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002707</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1240</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000612</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华宝生态中国混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1101</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001097</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极优选股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0647</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002581</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>23.42</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0606</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012409</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发恒昌一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>21.91</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003153</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华富天鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002271</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商安弘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002582</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>23.42</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>21</v>
+      </c>
+      <c r="D2" t="n">
+        <v>14.11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13.91</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>8</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>4.52</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002153-石基信息.xlsx
+++ b/数据整理/stocks/A股/深证主板/002153-石基信息.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3129,7 +3130,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3140,17 +3141,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3160,14 +3181,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>21</v>
-      </c>
-      <c r="D2" t="n">
-        <v>14.11</v>
+          <t>010115</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9327</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -3176,14 +3219,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10.58</v>
+          <t>000118</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发聚鑫债券A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>208.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7532</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -3192,14 +3257,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>13.91</v>
+          <t>410003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华富成长趋势混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5750</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -3208,14 +3295,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>9</v>
-      </c>
-      <c r="D5" t="n">
-        <v>6.6</v>
+          <t>410007</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华富价值增长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.15</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4360</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -3224,13 +3333,547 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>012408</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发恒昌一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>48.40</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4114</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014024</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华富卓越成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3159</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009398</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华富成长企业精选股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2387</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000119</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发聚鑫债券C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>20.54</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1725</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011412</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1207</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002707</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0915</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003152</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华富天鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0633</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001103</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源工业革命4.0灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>37.48</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012409</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发恒昌一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003153</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华富天鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014025</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华富卓越成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D3" t="n">
+        <v>14.11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.58</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>13.91</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>9</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>8</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>4.52</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002153-石基信息.xlsx
+++ b/数据整理/stocks/A股/深证主板/002153-石基信息.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3756,7 +3757,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3767,17 +3768,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3787,14 +3808,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.23</v>
+          <t>410003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华富成长趋势混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6419</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -3803,14 +3846,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>21</v>
-      </c>
-      <c r="D3" t="n">
-        <v>14.11</v>
+          <t>009121</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发招享混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>50.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>21.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5062</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -3819,14 +3884,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>13</v>
-      </c>
-      <c r="D4" t="n">
-        <v>10.58</v>
+          <t>410007</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华富价值增长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4093</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -3835,14 +3922,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>12</v>
-      </c>
-      <c r="D5" t="n">
-        <v>13.91</v>
+          <t>012408</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发恒昌一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>45.14</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>21.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3882</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -3851,14 +3960,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>9</v>
-      </c>
-      <c r="D6" t="n">
-        <v>6.6</v>
+          <t>014024</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华富卓越成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3534</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -3867,13 +3998,829 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>501062</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方瑞合三年定期开放混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>75.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3265</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013880</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发招享混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>28.39</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>21.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2839</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009398</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华富成长企业精选股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2016</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001203</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东方红稳健精选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>20.20</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>23.48</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1596</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002707</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫科技领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1314</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012586</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方港股创新视野一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>50.45</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0934</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002581</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>49.11</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0922</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014706</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华富匠心明选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>79.93</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0818</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>501053</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东方红目标优选三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>21.62</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0619</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014707</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华富匠心明选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>79.93</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0594</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003152</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华富天鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001204</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东方红稳健精选混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>23.48</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012409</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发恒昌一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>21.81</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002582</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>49.11</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014025</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华富卓越成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012587</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>南方港股创新视野一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>50.45</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003153</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华富天鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>014871</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫科技领先灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>23</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.97</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.23</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>21</v>
+      </c>
+      <c r="D4" t="n">
+        <v>14.11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.58</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>12</v>
+      </c>
+      <c r="D6" t="n">
+        <v>13.91</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>9</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>8</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>4.52</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002153-石基信息.xlsx
+++ b/数据整理/stocks/A股/深证主板/002153-石基信息.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>3.97</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D3" t="n">
-        <v>6.23</v>
+        <v>3.97</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>14.11</v>
+        <v>6.23</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D5" t="n">
-        <v>10.58</v>
+        <v>14.11</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" t="n">
-        <v>13.91</v>
+        <v>10.58</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D7" t="n">
-        <v>6.6</v>
+        <v>13.91</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>9</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>8</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>4.52</v>
       </c>
     </row>
@@ -600,6 +617,518 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>410003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华富成长趋势混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4998</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>410007</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华富价值增长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.64</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3189</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001437</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2161</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001438</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2161</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009398</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华富成长企业精选股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1569</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002581</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>48.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0726</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012586</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方港股创新视野一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>50.74</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0672</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519644</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银河智联主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003152</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华富天鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002582</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>48.56</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012587</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方港股创新视野一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>50.74</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003153</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华富天鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1529,7 +2058,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2155,7 +2684,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3009,7 +3538,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3559,7 +4088,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4071,7 +4600,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4469,7 +4998,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002153-石基信息.xlsx
+++ b/数据整理/stocks/A股/深证主板/002153-石基信息.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D2" t="n">
-        <v>1.66</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D3" t="n">
-        <v>3.97</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D4" t="n">
-        <v>6.23</v>
+        <v>3.97</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>14.11</v>
+        <v>6.23</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D6" t="n">
-        <v>10.58</v>
+        <v>14.11</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" t="n">
-        <v>13.91</v>
+        <v>10.58</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D8" t="n">
-        <v>6.6</v>
+        <v>13.91</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>9</v>
+      </c>
+      <c r="D9" t="n">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>8</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>4.52</v>
       </c>
     </row>
@@ -616,7 +633,1487 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>110010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达价值成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>59.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5911</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009398</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华富成长企业精选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8824</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>410003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华富成长趋势混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.84</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4224</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001437</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2390</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001438</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2390</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>410007</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华富价值增长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0900</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003152</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华富天鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003153</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华富天鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010115</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>28.67</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5052</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000118</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发聚鑫债券A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>123.74</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1384</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011412</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9592</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001437</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.56</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7329</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001438</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.56</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7329</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>410003</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华富成长趋势混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.74</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5520</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009121</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发招享混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>52.83</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>27.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5177</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011891</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达先锋成长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5062</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>410007</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华富价值增长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.81</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3867</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011892</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达先锋成长混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3131</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501062</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方瑞合三年定期开放混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3075</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012408</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发恒昌一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>24.13</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>27.85</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2510</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013880</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发招享混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>23.13</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>27.71</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2267</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006864</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国联安核心资产策略混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1677</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009398</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华富成长企业精选股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1619</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000119</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发聚鑫债券C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>15.35</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>20.30</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1412</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012586</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方港股创新视野一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.91</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0821</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014706</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华富匠心明选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0755</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010925</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>兴银科技增长1个月滚动持有期混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0742</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>519644</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>银河智联主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0587</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014707</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华富匠心明选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0579</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>015412</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>西部利得数字产业混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003152</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华富天鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>015413</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>西部利得数字产业混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012409</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发恒昌一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>27.85</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010926</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>兴银科技增长1个月滚动持有期混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003153</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华富天鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012587</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>南方港股创新视野一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>85.91</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1128,7 +2625,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2058,7 +3555,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2684,7 +4181,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3538,7 +5035,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4088,7 +5585,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4600,7 +6097,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4996,364 +6493,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>110010</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>易方达价值成长混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>59.84</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.93</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.5911</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009398</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华富成长企业精选股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>13.43</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.07</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.57</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.8824</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>410003</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华富成长趋势混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>12.84</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>90.77</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.4224</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001437</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>易方达瑞享灵活配置混合I</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.49</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>9.52</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2390</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001438</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>易方达瑞享灵活配置混合E</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.49</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>9.52</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2390</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>410007</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华富价值增长混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>80.00</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0900</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>003152</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华富天鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>89.95</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0557</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>003153</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华富天鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>89.95</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0030</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>